--- a/design/全剧情流程图.xlsx
+++ b/design/全剧情流程图.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="第一章(第一天)" sheetId="1" r:id="rId1"/>
+    <sheet name="第一章" sheetId="2" r:id="rId1"/>
+    <sheet name="第一章(流程)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +20,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>第一天:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>流程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推销员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17*13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT003</t>
+  </si>
+  <si>
+    <t>TEXT004</t>
+  </si>
+  <si>
+    <t>TEXT005</t>
+  </si>
+  <si>
+    <t>TEXT006</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT22 选项:是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊
+一段对话最多4行
+属于一段对话的同一个单元格写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,12 +175,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,9 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -97,19 +238,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -129,8 +270,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="352425"/>
-          <a:ext cx="2647950" cy="5191125"/>
+          <a:off x="152400" y="495300"/>
+          <a:ext cx="5495925" cy="17468850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,10 +556,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E24:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1231</v>
+      </c>
+      <c r="C11">
+        <v>1213213123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,8 +725,8 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
